--- a/think/暂定表.xlsx
+++ b/think/暂定表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w5137\workspace\go\WhatEatToday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w5137\workspace\go\WhatEatToday\think\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9260D08-B869-4652-8606-96CFE6940343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3B39FF-A978-467A-9953-DC0553323D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{0D190A51-22E5-4AA7-9292-4856B898D93E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="9564" windowHeight="13056" xr2:uid="{0D190A51-22E5-4AA7-9292-4856B898D93E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
   </si>
   <si>
     <t>做法2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,12 +253,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C050C339-A2BC-4C89-834D-F96EC276BEC1}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,39 +589,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -671,10 +667,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -687,134 +680,134 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
         <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
